--- a/documentacion/Documentacion_final/11 Registro de Incidencias_RI.xlsx
+++ b/documentacion/Documentacion_final/11 Registro de Incidencias_RI.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>001</t>
   </si>
@@ -170,6 +170,30 @@
   </si>
   <si>
     <t>Se cambia de plugin cordova para que funcione</t>
+  </si>
+  <si>
+    <t>En el login se debe validar que se haya introducido usuario y contraseña antes de llamar al servidor</t>
+  </si>
+  <si>
+    <t>Se modifica el título para que solo sean las siglas LAM</t>
+  </si>
+  <si>
+    <t>Se mete una validación en cliente en el código javascript</t>
+  </si>
+  <si>
+    <t>Las transiciones entre pantallas debe ser con slide</t>
+  </si>
+  <si>
+    <t>El header y footer deben mantenerse estáticos en las pantallas  y que el scroll sea sobre el contenido</t>
+  </si>
+  <si>
+    <t>Se modifica el método changePage para meterle el parámetro transaction:slide</t>
+  </si>
+  <si>
+    <t>Falla al actualizar un paciente que tuviera exploraciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si me meto en un paciente que tuviera 159 completas, falla en ExploracionUtilDTO.toBusiness en la línea </t>
   </si>
 </sst>
 </file>
@@ -1071,8 +1095,8 @@
   </sheetPr>
   <dimension ref="A1:O378"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1250,7 +1274,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>2</v>
       </c>
@@ -1272,62 +1296,122 @@
       <c r="G7" s="48">
         <v>41767</v>
       </c>
-      <c r="H7" s="24"/>
+      <c r="H7" s="24" t="s">
+        <v>22</v>
+      </c>
       <c r="I7" s="26"/>
-      <c r="J7" s="27"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J7" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
+      <c r="B8" s="22">
+        <v>41760</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="46">
+        <v>3</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="48">
+        <v>41774</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>22</v>
+      </c>
       <c r="I8" s="26"/>
-      <c r="J8" s="27"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J8" s="27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
+      <c r="B9" s="22">
+        <v>41763</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="46">
+        <v>3</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="48">
+        <v>41774</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>22</v>
+      </c>
       <c r="I9" s="26"/>
-      <c r="J9" s="27"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J9" s="27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
+      <c r="B10" s="22">
+        <v>41763</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="46">
+        <v>2</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="48">
+        <v>41774</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>22</v>
+      </c>
       <c r="I10" s="26"/>
       <c r="J10" s="27"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="24"/>
+      <c r="C11" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="46">
+        <v>1</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="48">
+        <v>41767</v>
+      </c>
       <c r="H11" s="24"/>
       <c r="I11" s="26"/>
       <c r="J11" s="27"/>

--- a/documentacion/Documentacion_final/11 Registro de Incidencias_RI.xlsx
+++ b/documentacion/Documentacion_final/11 Registro de Incidencias_RI.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="51">
   <si>
     <t>001</t>
   </si>
@@ -190,10 +190,37 @@
     <t>Se modifica el método changePage para meterle el parámetro transaction:slide</t>
   </si>
   <si>
-    <t>Falla al actualizar un paciente que tuviera exploraciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si me meto en un paciente que tuviera 159 completas, falla en ExploracionUtilDTO.toBusiness en la línea </t>
+    <t>Si intento modificar un paciente que tuviera exploraciones, falla en ExploracionUtilDTO.toBusiness en la línea 159</t>
+  </si>
+  <si>
+    <t>En la edición de pacientes, no se cambia el texto de botón "Guardar" por "Modificar"</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>El validador de fechas javascript no controla si la fecha tiene la longitud exacta de 10 caracteres</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>Cambiar los componentes input para fechas que están utilzando el plugin de cordova por un simple input type="date"</t>
+  </si>
+  <si>
+    <t>Falla al actualizar unos antecedentes personales. Se muestra el mensaje</t>
+  </si>
+  <si>
+    <t>Cuando se produce una excepción en servidor, se queda la pantalla de cargando</t>
+  </si>
+  <si>
+    <t>Fallaba solo si era una excepción controlada. Se ha añadido el generic.noloading() cuando muestra el mensaje</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>Cuando se pierde la sesión y vuelve a la pantalla de login, vuelve a mostrar el mensaje de Sesión finalizada y aunque meta correctamente el usuario y la contraseña, saca el mensaje de error de usuario y/o contraseña</t>
   </si>
 </sst>
 </file>
@@ -579,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -664,9 +691,6 @@
     <xf numFmtId="15" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -696,9 +720,6 @@
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -710,7 +731,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="42">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -721,6 +756,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -728,7 +770,259 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1093,10 +1387,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O378"/>
+  <dimension ref="A1:O382"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1121,7 +1415,7 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="37" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="3"/>
@@ -1137,11 +1431,11 @@
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="43" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="44" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="10"/>
@@ -1174,34 +1468,34 @@
       </c>
     </row>
     <row r="4" spans="1:15" s="20" customFormat="1" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="42" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="6">
@@ -1221,7 +1515,7 @@
       <c r="C5" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="45">
         <v>1</v>
       </c>
       <c r="E5" s="23" t="s">
@@ -1230,13 +1524,13 @@
       <c r="F5" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5" s="46">
         <v>41767</v>
       </c>
       <c r="H5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="49"/>
+      <c r="I5" s="47"/>
       <c r="J5" s="25" t="s">
         <v>30</v>
       </c>
@@ -1254,7 +1548,7 @@
       <c r="C6" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="45">
         <v>1</v>
       </c>
       <c r="E6" s="23" t="s">
@@ -1263,7 +1557,7 @@
       <c r="F6" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="46">
         <v>41767</v>
       </c>
       <c r="H6" s="24" t="s">
@@ -1284,7 +1578,7 @@
       <c r="C7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="45">
         <v>2</v>
       </c>
       <c r="E7" s="23" t="s">
@@ -1293,7 +1587,7 @@
       <c r="F7" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="48">
+      <c r="G7" s="46">
         <v>41767</v>
       </c>
       <c r="H7" s="24" t="s">
@@ -1314,7 +1608,7 @@
       <c r="C8" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="45">
         <v>3</v>
       </c>
       <c r="E8" s="23" t="s">
@@ -1323,7 +1617,7 @@
       <c r="F8" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="48">
+      <c r="G8" s="46">
         <v>41774</v>
       </c>
       <c r="H8" s="24" t="s">
@@ -1344,7 +1638,7 @@
       <c r="C9" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="45">
         <v>3</v>
       </c>
       <c r="E9" s="23" t="s">
@@ -1353,7 +1647,7 @@
       <c r="F9" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="48">
+      <c r="G9" s="46">
         <v>41774</v>
       </c>
       <c r="H9" s="24" t="s">
@@ -1374,7 +1668,7 @@
       <c r="C10" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="45">
         <v>2</v>
       </c>
       <c r="E10" s="23" t="s">
@@ -1383,7 +1677,7 @@
       <c r="F10" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="48">
+      <c r="G10" s="46">
         <v>41774</v>
       </c>
       <c r="H10" s="24" t="s">
@@ -1396,1162 +1690,1385 @@
       <c r="A11" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="22">
+        <v>41764</v>
+      </c>
       <c r="C11" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="45">
+        <v>1</v>
+      </c>
+      <c r="E11" s="23" t="s">
         <v>40</v>
-      </c>
-      <c r="D11" s="46">
-        <v>1</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>41</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="48">
+      <c r="G11" s="46">
         <v>41767</v>
       </c>
       <c r="H11" s="24"/>
       <c r="I11" s="26"/>
       <c r="J11" s="27"/>
     </row>
-    <row r="12" spans="1:15" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="33"/>
+      <c r="B12" s="29">
+        <v>41764</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="45">
+        <v>3</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="32">
+        <v>41774</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>22</v>
+      </c>
       <c r="I12" s="34"/>
       <c r="J12" s="35"/>
     </row>
-    <row r="13" spans="1:15" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="H13" s="36"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C14" s="6" t="s">
+    <row r="13" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="29">
+        <v>41764</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="45">
+        <v>2</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="32">
+        <v>41774</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="34"/>
+      <c r="J13" s="35"/>
+    </row>
+    <row r="14" spans="1:15" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="29">
+        <v>41764</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="45">
+        <v>1</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="32">
+        <v>41774</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="34"/>
+      <c r="J14" s="35"/>
+    </row>
+    <row r="15" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="29">
+        <v>41764</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="45">
+        <v>1</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="32">
+        <v>41774</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="34"/>
+      <c r="J15" s="35"/>
+    </row>
+    <row r="16" spans="1:15" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="29">
+        <v>41764</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="45">
+        <v>1</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="32">
+        <v>41774</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="34"/>
+      <c r="J16" s="35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="29">
+        <v>41764</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="45">
+        <v>1</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="32">
+        <v>41774</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="34"/>
+      <c r="J17" s="35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="12" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="37"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H15" s="37"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="H16" s="37"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H17" s="37"/>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H18" s="37"/>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H19" s="37"/>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H20" s="37"/>
-    </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H21" s="37"/>
-    </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H22" s="37"/>
-    </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H23" s="37"/>
-    </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H24" s="37"/>
-    </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H25" s="37"/>
-    </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H26" s="37"/>
-    </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H27" s="37"/>
-    </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H28" s="37"/>
-    </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H29" s="37"/>
-    </row>
-    <row r="30" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H30" s="37"/>
-    </row>
-    <row r="31" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H31" s="37"/>
-    </row>
-    <row r="32" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H32" s="37"/>
+      <c r="H18" s="36"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H19" s="36"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H20" s="36"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H21" s="36"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H22" s="36"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H23" s="36"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H24" s="36"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H25" s="36"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H26" s="36"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H27" s="36"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H28" s="36"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H29" s="36"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H30" s="36"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H31" s="36"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H32" s="36"/>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H33" s="37"/>
+      <c r="H33" s="36"/>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H34" s="37"/>
+      <c r="H34" s="36"/>
     </row>
     <row r="35" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H35" s="37"/>
+      <c r="H35" s="36"/>
     </row>
     <row r="36" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H36" s="37"/>
+      <c r="H36" s="36"/>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H37" s="37"/>
+      <c r="H37" s="36"/>
     </row>
     <row r="38" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H38" s="37"/>
+      <c r="H38" s="36"/>
     </row>
     <row r="39" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H39" s="37"/>
+      <c r="H39" s="36"/>
     </row>
     <row r="40" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H40" s="37"/>
+      <c r="H40" s="36"/>
     </row>
     <row r="41" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H41" s="37"/>
+      <c r="H41" s="36"/>
     </row>
     <row r="42" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H42" s="37"/>
+      <c r="H42" s="36"/>
     </row>
     <row r="43" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H43" s="37"/>
+      <c r="H43" s="36"/>
     </row>
     <row r="44" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H44" s="37"/>
+      <c r="H44" s="36"/>
     </row>
     <row r="45" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H45" s="37"/>
+      <c r="H45" s="36"/>
     </row>
     <row r="46" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H46" s="37"/>
+      <c r="H46" s="36"/>
     </row>
     <row r="47" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H47" s="37"/>
+      <c r="H47" s="36"/>
     </row>
     <row r="48" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H48" s="37"/>
+      <c r="H48" s="36"/>
     </row>
     <row r="49" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H49" s="37"/>
+      <c r="H49" s="36"/>
     </row>
     <row r="50" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H50" s="37"/>
+      <c r="H50" s="36"/>
     </row>
     <row r="51" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H51" s="37"/>
+      <c r="H51" s="36"/>
     </row>
     <row r="52" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H52" s="37"/>
+      <c r="H52" s="36"/>
     </row>
     <row r="53" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H53" s="37"/>
+      <c r="H53" s="36"/>
     </row>
     <row r="54" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H54" s="37"/>
+      <c r="H54" s="36"/>
     </row>
     <row r="55" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H55" s="37"/>
+      <c r="H55" s="36"/>
     </row>
     <row r="56" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H56" s="37"/>
+      <c r="H56" s="36"/>
     </row>
     <row r="57" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H57" s="37"/>
+      <c r="H57" s="36"/>
     </row>
     <row r="58" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H58" s="37"/>
+      <c r="H58" s="36"/>
     </row>
     <row r="59" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H59" s="37"/>
+      <c r="H59" s="36"/>
     </row>
     <row r="60" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H60" s="37"/>
+      <c r="H60" s="36"/>
     </row>
     <row r="61" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H61" s="37"/>
+      <c r="H61" s="36"/>
     </row>
     <row r="62" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H62" s="37"/>
+      <c r="H62" s="36"/>
     </row>
     <row r="63" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H63" s="37"/>
+      <c r="H63" s="36"/>
     </row>
     <row r="64" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H64" s="37"/>
+      <c r="H64" s="36"/>
     </row>
     <row r="65" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H65" s="37"/>
+      <c r="H65" s="36"/>
     </row>
     <row r="66" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H66" s="37"/>
+      <c r="H66" s="36"/>
     </row>
     <row r="67" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H67" s="37"/>
+      <c r="H67" s="36"/>
     </row>
     <row r="68" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H68" s="37"/>
+      <c r="H68" s="36"/>
     </row>
     <row r="69" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H69" s="37"/>
+      <c r="H69" s="36"/>
     </row>
     <row r="70" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H70" s="37"/>
+      <c r="H70" s="36"/>
     </row>
     <row r="71" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H71" s="37"/>
+      <c r="H71" s="36"/>
     </row>
     <row r="72" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H72" s="37"/>
+      <c r="H72" s="36"/>
     </row>
     <row r="73" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H73" s="37"/>
+      <c r="H73" s="36"/>
     </row>
     <row r="74" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H74" s="37"/>
+      <c r="H74" s="36"/>
     </row>
     <row r="75" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H75" s="37"/>
+      <c r="H75" s="36"/>
     </row>
     <row r="76" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H76" s="37"/>
+      <c r="H76" s="36"/>
     </row>
     <row r="77" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H77" s="37"/>
+      <c r="H77" s="36"/>
     </row>
     <row r="78" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H78" s="37"/>
+      <c r="H78" s="36"/>
     </row>
     <row r="79" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H79" s="37"/>
+      <c r="H79" s="36"/>
     </row>
     <row r="80" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H80" s="37"/>
+      <c r="H80" s="36"/>
     </row>
     <row r="81" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H81" s="37"/>
+      <c r="H81" s="36"/>
     </row>
     <row r="82" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H82" s="37"/>
+      <c r="H82" s="36"/>
     </row>
     <row r="83" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H83" s="37"/>
+      <c r="H83" s="36"/>
     </row>
     <row r="84" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H84" s="37"/>
+      <c r="H84" s="36"/>
     </row>
     <row r="85" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H85" s="37"/>
+      <c r="H85" s="36"/>
     </row>
     <row r="86" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H86" s="37"/>
+      <c r="H86" s="36"/>
     </row>
     <row r="87" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H87" s="37"/>
+      <c r="H87" s="36"/>
     </row>
     <row r="88" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H88" s="37"/>
+      <c r="H88" s="36"/>
     </row>
     <row r="89" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H89" s="37"/>
+      <c r="H89" s="36"/>
     </row>
     <row r="90" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H90" s="37"/>
+      <c r="H90" s="36"/>
     </row>
     <row r="91" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H91" s="37"/>
+      <c r="H91" s="36"/>
     </row>
     <row r="92" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H92" s="37"/>
+      <c r="H92" s="36"/>
     </row>
     <row r="93" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H93" s="37"/>
+      <c r="H93" s="36"/>
     </row>
     <row r="94" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H94" s="37"/>
+      <c r="H94" s="36"/>
     </row>
     <row r="95" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H95" s="37"/>
+      <c r="H95" s="36"/>
     </row>
     <row r="96" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H96" s="37"/>
+      <c r="H96" s="36"/>
     </row>
     <row r="97" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H97" s="37"/>
+      <c r="H97" s="36"/>
     </row>
     <row r="98" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H98" s="37"/>
+      <c r="H98" s="36"/>
     </row>
     <row r="99" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H99" s="37"/>
+      <c r="H99" s="36"/>
     </row>
     <row r="100" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H100" s="37"/>
+      <c r="H100" s="36"/>
     </row>
     <row r="101" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H101" s="37"/>
+      <c r="H101" s="36"/>
     </row>
     <row r="102" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H102" s="37"/>
+      <c r="H102" s="36"/>
     </row>
     <row r="103" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H103" s="37"/>
+      <c r="H103" s="36"/>
     </row>
     <row r="104" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H104" s="37"/>
+      <c r="H104" s="36"/>
     </row>
     <row r="105" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H105" s="37"/>
+      <c r="H105" s="36"/>
     </row>
     <row r="106" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H106" s="37"/>
+      <c r="H106" s="36"/>
     </row>
     <row r="107" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H107" s="37"/>
+      <c r="H107" s="36"/>
     </row>
     <row r="108" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H108" s="37"/>
+      <c r="H108" s="36"/>
     </row>
     <row r="109" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H109" s="37"/>
+      <c r="H109" s="36"/>
     </row>
     <row r="110" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H110" s="37"/>
+      <c r="H110" s="36"/>
     </row>
     <row r="111" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H111" s="37"/>
+      <c r="H111" s="36"/>
     </row>
     <row r="112" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H112" s="37"/>
+      <c r="H112" s="36"/>
     </row>
     <row r="113" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H113" s="37"/>
+      <c r="H113" s="36"/>
     </row>
     <row r="114" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H114" s="37"/>
+      <c r="H114" s="36"/>
     </row>
     <row r="115" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H115" s="37"/>
+      <c r="H115" s="36"/>
     </row>
     <row r="116" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H116" s="37"/>
+      <c r="H116" s="36"/>
     </row>
     <row r="117" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H117" s="37"/>
+      <c r="H117" s="36"/>
     </row>
     <row r="118" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H118" s="37"/>
+      <c r="H118" s="36"/>
     </row>
     <row r="119" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H119" s="37"/>
+      <c r="H119" s="36"/>
     </row>
     <row r="120" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H120" s="37"/>
+      <c r="H120" s="36"/>
     </row>
     <row r="121" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H121" s="37"/>
+      <c r="H121" s="36"/>
     </row>
     <row r="122" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H122" s="37"/>
+      <c r="H122" s="36"/>
     </row>
     <row r="123" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H123" s="37"/>
+      <c r="H123" s="36"/>
     </row>
     <row r="124" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H124" s="37"/>
+      <c r="H124" s="36"/>
     </row>
     <row r="125" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H125" s="37"/>
+      <c r="H125" s="36"/>
     </row>
     <row r="126" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H126" s="37"/>
+      <c r="H126" s="36"/>
     </row>
     <row r="127" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H127" s="37"/>
+      <c r="H127" s="36"/>
     </row>
     <row r="128" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H128" s="37"/>
+      <c r="H128" s="36"/>
     </row>
     <row r="129" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H129" s="37"/>
+      <c r="H129" s="36"/>
     </row>
     <row r="130" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H130" s="37"/>
+      <c r="H130" s="36"/>
     </row>
     <row r="131" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H131" s="37"/>
+      <c r="H131" s="36"/>
     </row>
     <row r="132" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H132" s="37"/>
+      <c r="H132" s="36"/>
     </row>
     <row r="133" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H133" s="37"/>
+      <c r="H133" s="36"/>
     </row>
     <row r="134" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H134" s="37"/>
+      <c r="H134" s="36"/>
     </row>
     <row r="135" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H135" s="37"/>
+      <c r="H135" s="36"/>
     </row>
     <row r="136" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H136" s="37"/>
+      <c r="H136" s="36"/>
     </row>
     <row r="137" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H137" s="37"/>
+      <c r="H137" s="36"/>
     </row>
     <row r="138" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H138" s="37"/>
+      <c r="H138" s="36"/>
     </row>
     <row r="139" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H139" s="37"/>
+      <c r="H139" s="36"/>
     </row>
     <row r="140" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H140" s="37"/>
+      <c r="H140" s="36"/>
     </row>
     <row r="141" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H141" s="37"/>
+      <c r="H141" s="36"/>
     </row>
     <row r="142" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H142" s="37"/>
+      <c r="H142" s="36"/>
     </row>
     <row r="143" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H143" s="37"/>
+      <c r="H143" s="36"/>
     </row>
     <row r="144" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H144" s="37"/>
+      <c r="H144" s="36"/>
     </row>
     <row r="145" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H145" s="37"/>
+      <c r="H145" s="36"/>
     </row>
     <row r="146" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H146" s="37"/>
+      <c r="H146" s="36"/>
     </row>
     <row r="147" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H147" s="37"/>
+      <c r="H147" s="36"/>
     </row>
     <row r="148" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H148" s="37"/>
+      <c r="H148" s="36"/>
     </row>
     <row r="149" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H149" s="37"/>
+      <c r="H149" s="36"/>
     </row>
     <row r="150" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H150" s="37"/>
+      <c r="H150" s="36"/>
     </row>
     <row r="151" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H151" s="37"/>
+      <c r="H151" s="36"/>
     </row>
     <row r="152" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H152" s="37"/>
+      <c r="H152" s="36"/>
     </row>
     <row r="153" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H153" s="37"/>
+      <c r="H153" s="36"/>
     </row>
     <row r="154" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H154" s="37"/>
+      <c r="H154" s="36"/>
     </row>
     <row r="155" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H155" s="37"/>
+      <c r="H155" s="36"/>
     </row>
     <row r="156" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H156" s="37"/>
+      <c r="H156" s="36"/>
     </row>
     <row r="157" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H157" s="37"/>
+      <c r="H157" s="36"/>
     </row>
     <row r="158" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H158" s="37"/>
+      <c r="H158" s="36"/>
     </row>
     <row r="159" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H159" s="37"/>
+      <c r="H159" s="36"/>
     </row>
     <row r="160" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H160" s="37"/>
+      <c r="H160" s="36"/>
     </row>
     <row r="161" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H161" s="37"/>
+      <c r="H161" s="36"/>
     </row>
     <row r="162" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H162" s="37"/>
+      <c r="H162" s="36"/>
     </row>
     <row r="163" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H163" s="37"/>
+      <c r="H163" s="36"/>
     </row>
     <row r="164" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H164" s="37"/>
+      <c r="H164" s="36"/>
     </row>
     <row r="165" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H165" s="37"/>
+      <c r="H165" s="36"/>
     </row>
     <row r="166" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H166" s="37"/>
+      <c r="H166" s="36"/>
     </row>
     <row r="167" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H167" s="37"/>
+      <c r="H167" s="36"/>
     </row>
     <row r="168" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H168" s="37"/>
+      <c r="H168" s="36"/>
     </row>
     <row r="169" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H169" s="37"/>
+      <c r="H169" s="36"/>
     </row>
     <row r="170" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H170" s="37"/>
+      <c r="H170" s="36"/>
     </row>
     <row r="171" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H171" s="37"/>
+      <c r="H171" s="36"/>
     </row>
     <row r="172" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H172" s="37"/>
+      <c r="H172" s="36"/>
     </row>
     <row r="173" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H173" s="37"/>
+      <c r="H173" s="36"/>
     </row>
     <row r="174" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H174" s="37"/>
+      <c r="H174" s="36"/>
     </row>
     <row r="175" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H175" s="37"/>
+      <c r="H175" s="36"/>
     </row>
     <row r="176" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H176" s="37"/>
+      <c r="H176" s="36"/>
     </row>
     <row r="177" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H177" s="37"/>
+      <c r="H177" s="36"/>
     </row>
     <row r="178" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H178" s="37"/>
+      <c r="H178" s="36"/>
     </row>
     <row r="179" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H179" s="37"/>
+      <c r="H179" s="36"/>
     </row>
     <row r="180" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H180" s="37"/>
+      <c r="H180" s="36"/>
     </row>
     <row r="181" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H181" s="37"/>
+      <c r="H181" s="36"/>
     </row>
     <row r="182" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H182" s="37"/>
+      <c r="H182" s="36"/>
     </row>
     <row r="183" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H183" s="37"/>
+      <c r="H183" s="36"/>
     </row>
     <row r="184" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H184" s="37"/>
+      <c r="H184" s="36"/>
     </row>
     <row r="185" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H185" s="37"/>
+      <c r="H185" s="36"/>
     </row>
     <row r="186" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H186" s="37"/>
+      <c r="H186" s="36"/>
     </row>
     <row r="187" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H187" s="37"/>
+      <c r="H187" s="36"/>
     </row>
     <row r="188" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H188" s="37"/>
+      <c r="H188" s="36"/>
     </row>
     <row r="189" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H189" s="37"/>
+      <c r="H189" s="36"/>
     </row>
     <row r="190" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H190" s="37"/>
+      <c r="H190" s="36"/>
     </row>
     <row r="191" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H191" s="37"/>
+      <c r="H191" s="36"/>
     </row>
     <row r="192" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H192" s="37"/>
+      <c r="H192" s="36"/>
     </row>
     <row r="193" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H193" s="37"/>
+      <c r="H193" s="36"/>
     </row>
     <row r="194" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H194" s="37"/>
+      <c r="H194" s="36"/>
     </row>
     <row r="195" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H195" s="37"/>
+      <c r="H195" s="36"/>
     </row>
     <row r="196" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H196" s="37"/>
+      <c r="H196" s="36"/>
     </row>
     <row r="197" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H197" s="37"/>
+      <c r="H197" s="36"/>
     </row>
     <row r="198" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H198" s="37"/>
+      <c r="H198" s="36"/>
     </row>
     <row r="199" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H199" s="37"/>
+      <c r="H199" s="36"/>
     </row>
     <row r="200" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H200" s="37"/>
+      <c r="H200" s="36"/>
     </row>
     <row r="201" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H201" s="37"/>
+      <c r="H201" s="36"/>
     </row>
     <row r="202" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H202" s="37"/>
+      <c r="H202" s="36"/>
     </row>
     <row r="203" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H203" s="37"/>
+      <c r="H203" s="36"/>
     </row>
     <row r="204" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H204" s="37"/>
+      <c r="H204" s="36"/>
     </row>
     <row r="205" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H205" s="37"/>
+      <c r="H205" s="36"/>
     </row>
     <row r="206" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H206" s="37"/>
+      <c r="H206" s="36"/>
     </row>
     <row r="207" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H207" s="37"/>
+      <c r="H207" s="36"/>
     </row>
     <row r="208" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H208" s="37"/>
+      <c r="H208" s="36"/>
     </row>
     <row r="209" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H209" s="37"/>
+      <c r="H209" s="36"/>
     </row>
     <row r="210" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H210" s="37"/>
+      <c r="H210" s="36"/>
     </row>
     <row r="211" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H211" s="37"/>
+      <c r="H211" s="36"/>
     </row>
     <row r="212" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H212" s="37"/>
+      <c r="H212" s="36"/>
     </row>
     <row r="213" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H213" s="37"/>
+      <c r="H213" s="36"/>
     </row>
     <row r="214" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H214" s="37"/>
+      <c r="H214" s="36"/>
     </row>
     <row r="215" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H215" s="37"/>
+      <c r="H215" s="36"/>
     </row>
     <row r="216" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H216" s="37"/>
+      <c r="H216" s="36"/>
     </row>
     <row r="217" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H217" s="37"/>
+      <c r="H217" s="36"/>
     </row>
     <row r="218" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H218" s="37"/>
+      <c r="H218" s="36"/>
     </row>
     <row r="219" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H219" s="37"/>
+      <c r="H219" s="36"/>
     </row>
     <row r="220" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H220" s="37"/>
+      <c r="H220" s="36"/>
     </row>
     <row r="221" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H221" s="37"/>
+      <c r="H221" s="36"/>
     </row>
     <row r="222" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H222" s="37"/>
+      <c r="H222" s="36"/>
     </row>
     <row r="223" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H223" s="37"/>
+      <c r="H223" s="36"/>
     </row>
     <row r="224" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H224" s="37"/>
+      <c r="H224" s="36"/>
     </row>
     <row r="225" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H225" s="37"/>
+      <c r="H225" s="36"/>
     </row>
     <row r="226" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H226" s="37"/>
+      <c r="H226" s="36"/>
     </row>
     <row r="227" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H227" s="37"/>
+      <c r="H227" s="36"/>
     </row>
     <row r="228" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H228" s="37"/>
+      <c r="H228" s="36"/>
     </row>
     <row r="229" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H229" s="37"/>
+      <c r="H229" s="36"/>
     </row>
     <row r="230" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H230" s="37"/>
+      <c r="H230" s="36"/>
     </row>
     <row r="231" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H231" s="37"/>
+      <c r="H231" s="36"/>
     </row>
     <row r="232" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H232" s="37"/>
+      <c r="H232" s="36"/>
     </row>
     <row r="233" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H233" s="37"/>
+      <c r="H233" s="36"/>
     </row>
     <row r="234" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H234" s="37"/>
+      <c r="H234" s="36"/>
     </row>
     <row r="235" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H235" s="37"/>
+      <c r="H235" s="36"/>
     </row>
     <row r="236" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H236" s="37"/>
+      <c r="H236" s="36"/>
     </row>
     <row r="237" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H237" s="37"/>
+      <c r="H237" s="36"/>
     </row>
     <row r="238" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H238" s="37"/>
+      <c r="H238" s="36"/>
     </row>
     <row r="239" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H239" s="37"/>
+      <c r="H239" s="36"/>
     </row>
     <row r="240" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H240" s="37"/>
+      <c r="H240" s="36"/>
     </row>
     <row r="241" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H241" s="37"/>
+      <c r="H241" s="36"/>
     </row>
     <row r="242" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H242" s="37"/>
+      <c r="H242" s="36"/>
     </row>
     <row r="243" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H243" s="37"/>
+      <c r="H243" s="36"/>
     </row>
     <row r="244" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H244" s="37"/>
+      <c r="H244" s="36"/>
     </row>
     <row r="245" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H245" s="37"/>
+      <c r="H245" s="36"/>
     </row>
     <row r="246" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H246" s="37"/>
+      <c r="H246" s="36"/>
     </row>
     <row r="247" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H247" s="37"/>
+      <c r="H247" s="36"/>
     </row>
     <row r="248" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H248" s="37"/>
+      <c r="H248" s="36"/>
     </row>
     <row r="249" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H249" s="37"/>
+      <c r="H249" s="36"/>
     </row>
     <row r="250" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H250" s="37"/>
+      <c r="H250" s="36"/>
     </row>
     <row r="251" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H251" s="37"/>
+      <c r="H251" s="36"/>
     </row>
     <row r="252" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H252" s="37"/>
+      <c r="H252" s="36"/>
     </row>
     <row r="253" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H253" s="37"/>
+      <c r="H253" s="36"/>
     </row>
     <row r="254" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H254" s="37"/>
+      <c r="H254" s="36"/>
     </row>
     <row r="255" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H255" s="37"/>
+      <c r="H255" s="36"/>
     </row>
     <row r="256" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H256" s="37"/>
+      <c r="H256" s="36"/>
     </row>
     <row r="257" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H257" s="37"/>
+      <c r="H257" s="36"/>
     </row>
     <row r="258" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H258" s="37"/>
+      <c r="H258" s="36"/>
     </row>
     <row r="259" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H259" s="37"/>
+      <c r="H259" s="36"/>
     </row>
     <row r="260" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H260" s="37"/>
+      <c r="H260" s="36"/>
     </row>
     <row r="261" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H261" s="37"/>
+      <c r="H261" s="36"/>
     </row>
     <row r="262" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H262" s="37"/>
+      <c r="H262" s="36"/>
     </row>
     <row r="263" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H263" s="37"/>
+      <c r="H263" s="36"/>
     </row>
     <row r="264" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H264" s="37"/>
+      <c r="H264" s="36"/>
     </row>
     <row r="265" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H265" s="37"/>
+      <c r="H265" s="36"/>
     </row>
     <row r="266" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H266" s="37"/>
+      <c r="H266" s="36"/>
     </row>
     <row r="267" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H267" s="37"/>
+      <c r="H267" s="36"/>
     </row>
     <row r="268" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H268" s="37"/>
+      <c r="H268" s="36"/>
     </row>
     <row r="269" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H269" s="37"/>
+      <c r="H269" s="36"/>
     </row>
     <row r="270" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H270" s="37"/>
+      <c r="H270" s="36"/>
     </row>
     <row r="271" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H271" s="37"/>
+      <c r="H271" s="36"/>
     </row>
     <row r="272" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H272" s="37"/>
+      <c r="H272" s="36"/>
     </row>
     <row r="273" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H273" s="37"/>
+      <c r="H273" s="36"/>
     </row>
     <row r="274" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H274" s="37"/>
+      <c r="H274" s="36"/>
     </row>
     <row r="275" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H275" s="37"/>
+      <c r="H275" s="36"/>
     </row>
     <row r="276" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H276" s="37"/>
+      <c r="H276" s="36"/>
     </row>
     <row r="277" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H277" s="37"/>
+      <c r="H277" s="36"/>
     </row>
     <row r="278" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H278" s="37"/>
+      <c r="H278" s="36"/>
     </row>
     <row r="279" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H279" s="37"/>
+      <c r="H279" s="36"/>
     </row>
     <row r="280" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H280" s="37"/>
+      <c r="H280" s="36"/>
     </row>
     <row r="281" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H281" s="37"/>
+      <c r="H281" s="36"/>
     </row>
     <row r="282" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H282" s="37"/>
+      <c r="H282" s="36"/>
     </row>
     <row r="283" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H283" s="37"/>
+      <c r="H283" s="36"/>
     </row>
     <row r="284" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H284" s="37"/>
+      <c r="H284" s="36"/>
     </row>
     <row r="285" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H285" s="37"/>
+      <c r="H285" s="36"/>
     </row>
     <row r="286" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H286" s="37"/>
+      <c r="H286" s="36"/>
     </row>
     <row r="287" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H287" s="37"/>
+      <c r="H287" s="36"/>
     </row>
     <row r="288" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H288" s="37"/>
+      <c r="H288" s="36"/>
     </row>
     <row r="289" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H289" s="37"/>
+      <c r="H289" s="36"/>
     </row>
     <row r="290" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H290" s="37"/>
+      <c r="H290" s="36"/>
     </row>
     <row r="291" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H291" s="37"/>
+      <c r="H291" s="36"/>
     </row>
     <row r="292" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H292" s="37"/>
+      <c r="H292" s="36"/>
     </row>
     <row r="293" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H293" s="37"/>
+      <c r="H293" s="36"/>
     </row>
     <row r="294" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H294" s="37"/>
+      <c r="H294" s="36"/>
     </row>
     <row r="295" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H295" s="37"/>
+      <c r="H295" s="36"/>
     </row>
     <row r="296" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H296" s="37"/>
+      <c r="H296" s="36"/>
     </row>
     <row r="297" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H297" s="37"/>
+      <c r="H297" s="36"/>
     </row>
     <row r="298" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H298" s="37"/>
+      <c r="H298" s="36"/>
     </row>
     <row r="299" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H299" s="37"/>
+      <c r="H299" s="36"/>
     </row>
     <row r="300" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H300" s="37"/>
+      <c r="H300" s="36"/>
     </row>
     <row r="301" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H301" s="37"/>
+      <c r="H301" s="36"/>
     </row>
     <row r="302" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H302" s="37"/>
+      <c r="H302" s="36"/>
     </row>
     <row r="303" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H303" s="37"/>
+      <c r="H303" s="36"/>
     </row>
     <row r="304" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H304" s="37"/>
+      <c r="H304" s="36"/>
     </row>
     <row r="305" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H305" s="37"/>
+      <c r="H305" s="36"/>
     </row>
     <row r="306" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H306" s="37"/>
+      <c r="H306" s="36"/>
     </row>
     <row r="307" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H307" s="37"/>
+      <c r="H307" s="36"/>
     </row>
     <row r="308" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H308" s="37"/>
+      <c r="H308" s="36"/>
     </row>
     <row r="309" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H309" s="37"/>
+      <c r="H309" s="36"/>
     </row>
     <row r="310" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H310" s="37"/>
+      <c r="H310" s="36"/>
     </row>
     <row r="311" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H311" s="37"/>
+      <c r="H311" s="36"/>
     </row>
     <row r="312" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H312" s="37"/>
+      <c r="H312" s="36"/>
     </row>
     <row r="313" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H313" s="37"/>
+      <c r="H313" s="36"/>
     </row>
     <row r="314" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H314" s="37"/>
+      <c r="H314" s="36"/>
     </row>
     <row r="315" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H315" s="37"/>
+      <c r="H315" s="36"/>
     </row>
     <row r="316" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H316" s="37"/>
+      <c r="H316" s="36"/>
     </row>
     <row r="317" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H317" s="37"/>
+      <c r="H317" s="36"/>
     </row>
     <row r="318" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H318" s="37"/>
+      <c r="H318" s="36"/>
     </row>
     <row r="319" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H319" s="37"/>
+      <c r="H319" s="36"/>
     </row>
     <row r="320" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H320" s="37"/>
+      <c r="H320" s="36"/>
     </row>
     <row r="321" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H321" s="37"/>
+      <c r="H321" s="36"/>
     </row>
     <row r="322" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H322" s="37"/>
+      <c r="H322" s="36"/>
     </row>
     <row r="323" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H323" s="37"/>
+      <c r="H323" s="36"/>
     </row>
     <row r="324" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H324" s="37"/>
+      <c r="H324" s="36"/>
     </row>
     <row r="325" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H325" s="37"/>
+      <c r="H325" s="36"/>
     </row>
     <row r="326" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H326" s="37"/>
+      <c r="H326" s="36"/>
     </row>
     <row r="327" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H327" s="37"/>
+      <c r="H327" s="36"/>
     </row>
     <row r="328" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H328" s="37"/>
+      <c r="H328" s="36"/>
     </row>
     <row r="329" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H329" s="37"/>
+      <c r="H329" s="36"/>
     </row>
     <row r="330" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H330" s="37"/>
+      <c r="H330" s="36"/>
     </row>
     <row r="331" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H331" s="37"/>
+      <c r="H331" s="36"/>
     </row>
     <row r="332" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H332" s="37"/>
+      <c r="H332" s="36"/>
     </row>
     <row r="333" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H333" s="37"/>
+      <c r="H333" s="36"/>
     </row>
     <row r="334" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H334" s="37"/>
+      <c r="H334" s="36"/>
     </row>
     <row r="335" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H335" s="37"/>
+      <c r="H335" s="36"/>
     </row>
     <row r="336" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H336" s="37"/>
+      <c r="H336" s="36"/>
     </row>
     <row r="337" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H337" s="37"/>
+      <c r="H337" s="36"/>
     </row>
     <row r="338" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H338" s="37"/>
+      <c r="H338" s="36"/>
     </row>
     <row r="339" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H339" s="37"/>
+      <c r="H339" s="36"/>
     </row>
     <row r="340" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H340" s="37"/>
+      <c r="H340" s="36"/>
     </row>
     <row r="341" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H341" s="37"/>
+      <c r="H341" s="36"/>
     </row>
     <row r="342" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H342" s="37"/>
+      <c r="H342" s="36"/>
     </row>
     <row r="343" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H343" s="37"/>
+      <c r="H343" s="36"/>
     </row>
     <row r="344" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H344" s="37"/>
+      <c r="H344" s="36"/>
     </row>
     <row r="345" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H345" s="37"/>
+      <c r="H345" s="36"/>
     </row>
     <row r="346" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H346" s="37"/>
+      <c r="H346" s="36"/>
     </row>
     <row r="347" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H347" s="37"/>
+      <c r="H347" s="36"/>
     </row>
     <row r="348" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H348" s="37"/>
+      <c r="H348" s="36"/>
     </row>
     <row r="349" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H349" s="37"/>
+      <c r="H349" s="36"/>
     </row>
     <row r="350" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H350" s="37"/>
+      <c r="H350" s="36"/>
     </row>
     <row r="351" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H351" s="37"/>
+      <c r="H351" s="36"/>
     </row>
     <row r="352" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H352" s="37"/>
+      <c r="H352" s="36"/>
     </row>
     <row r="353" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H353" s="37"/>
+      <c r="H353" s="36"/>
     </row>
     <row r="354" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H354" s="37"/>
+      <c r="H354" s="36"/>
     </row>
     <row r="355" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H355" s="37"/>
+      <c r="H355" s="36"/>
     </row>
     <row r="356" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H356" s="37"/>
+      <c r="H356" s="36"/>
     </row>
     <row r="357" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H357" s="37"/>
+      <c r="H357" s="36"/>
     </row>
     <row r="358" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H358" s="37"/>
+      <c r="H358" s="36"/>
     </row>
     <row r="359" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H359" s="37"/>
+      <c r="H359" s="36"/>
     </row>
     <row r="360" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H360" s="37"/>
+      <c r="H360" s="36"/>
     </row>
     <row r="361" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H361" s="37"/>
+      <c r="H361" s="36"/>
     </row>
     <row r="362" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H362" s="37"/>
+      <c r="H362" s="36"/>
     </row>
     <row r="363" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H363" s="37"/>
+      <c r="H363" s="36"/>
     </row>
     <row r="364" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H364" s="37"/>
+      <c r="H364" s="36"/>
     </row>
     <row r="365" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H365" s="37"/>
+      <c r="H365" s="36"/>
     </row>
     <row r="366" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H366" s="37"/>
+      <c r="H366" s="36"/>
     </row>
     <row r="367" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H367" s="37"/>
+      <c r="H367" s="36"/>
     </row>
     <row r="368" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H368" s="37"/>
+      <c r="H368" s="36"/>
     </row>
     <row r="369" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H369" s="37"/>
+      <c r="H369" s="36"/>
     </row>
     <row r="370" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H370" s="37"/>
+      <c r="H370" s="36"/>
     </row>
     <row r="371" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H371" s="37"/>
+      <c r="H371" s="36"/>
     </row>
     <row r="372" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H372" s="37"/>
+      <c r="H372" s="36"/>
     </row>
     <row r="373" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H373" s="37"/>
+      <c r="H373" s="36"/>
     </row>
     <row r="374" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H374" s="37"/>
+      <c r="H374" s="36"/>
     </row>
     <row r="375" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H375" s="37"/>
+      <c r="H375" s="36"/>
     </row>
     <row r="376" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H376" s="37"/>
+      <c r="H376" s="36"/>
     </row>
     <row r="377" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H377" s="37"/>
+      <c r="H377" s="36"/>
     </row>
     <row r="378" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H378" s="37"/>
+      <c r="H378" s="36"/>
+    </row>
+    <row r="379" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H379" s="36"/>
+    </row>
+    <row r="380" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H380" s="36"/>
+    </row>
+    <row r="381" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H381" s="36"/>
+    </row>
+    <row r="382" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H382" s="36"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="D5:D11">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
+      <formula>$L$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="20" operator="equal">
+      <formula>$L$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
       <formula>$L$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
+      <formula>$L$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
       <formula>$L$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
+      <formula>$L$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
       <formula>$L$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="14" operator="equal">
+      <formula>$L$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
+      <formula>$L$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13">
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
+      <formula>$L$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
+      <formula>$L$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+      <formula>$L$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+      <formula>$L$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+      <formula>$L$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+      <formula>$L$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+      <formula>$L$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+      <formula>$L$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+      <formula>$L$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>$L$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>$L$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H378">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H382">
       <formula1>$O$2:$O$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D17">
       <formula1>$L$2:$L$4</formula1>
     </dataValidation>
   </dataValidations>
@@ -2568,6 +3085,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100FB9238FD839DE1458C9EF746D117716A" ma:contentTypeVersion="0" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ef525560dd58d0c6ee7dc12abc3ec8e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae13a4600d56dd4d917937c2caf43faa">
     <xsd:element name="properties">
@@ -2616,32 +3148,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1D4419B-0089-4C39-9F39-49A51DF37CEC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DDE1CEE-2F26-48C2-8103-000926593C86}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2655,15 +3171,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DDE1CEE-2F26-48C2-8103-000926593C86}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1D4419B-0089-4C39-9F39-49A51DF37CEC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documentacion/Documentacion_final/11 Registro de Incidencias_RI.xlsx
+++ b/documentacion/Documentacion_final/11 Registro de Incidencias_RI.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="52">
   <si>
     <t>001</t>
   </si>
@@ -145,12 +145,6 @@
     <t>Fecha cambio de estado</t>
   </si>
   <si>
-    <t>Fecha creación Registro</t>
-  </si>
-  <si>
-    <t>dd/mm/aaaa</t>
-  </si>
-  <si>
     <t>David Llamazares Juárez</t>
   </si>
   <si>
@@ -221,6 +215,15 @@
   </si>
   <si>
     <t>Cuando se pierde la sesión y vuelve a la pantalla de login, vuelve a mostrar el mensaje de Sesión finalizada y aunque meta correctamente el usuario y la contraseña, saca el mensaje de error de usuario y/o contraseña</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>Se debe quitar el reconocimiento de voz en todas las cajas de texto de la pantalla valoracion articular muscular, puesto que todos son números y se debe cambiar el sistema para que solo permita números</t>
+  </si>
+  <si>
+    <t>Cuando hay</t>
   </si>
 </sst>
 </file>
@@ -731,70 +734,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="33">
     <dxf>
       <fill>
         <patternFill>
@@ -1390,7 +1330,7 @@
   <dimension ref="A1:O382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1513,16 +1453,16 @@
         <v>41762</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" s="45">
         <v>1</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G5" s="46">
         <v>41767</v>
@@ -1532,7 +1472,7 @@
       </c>
       <c r="I5" s="47"/>
       <c r="J5" s="25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O5" s="13" t="s">
         <v>23</v>
@@ -1546,16 +1486,16 @@
         <v>41762</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" s="45">
         <v>1</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G6" s="46">
         <v>41767</v>
@@ -1565,7 +1505,7 @@
       </c>
       <c r="I6" s="26"/>
       <c r="J6" s="27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -1576,16 +1516,16 @@
         <v>41762</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="45">
         <v>2</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G7" s="46">
         <v>41767</v>
@@ -1595,7 +1535,7 @@
       </c>
       <c r="I7" s="26"/>
       <c r="J7" s="27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -1606,16 +1546,16 @@
         <v>41760</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="45">
         <v>3</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G8" s="46">
         <v>41774</v>
@@ -1625,7 +1565,7 @@
       </c>
       <c r="I8" s="26"/>
       <c r="J8" s="27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -1636,16 +1576,16 @@
         <v>41763</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="45">
         <v>3</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G9" s="46">
         <v>41774</v>
@@ -1655,7 +1595,7 @@
       </c>
       <c r="I9" s="26"/>
       <c r="J9" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
@@ -1666,16 +1606,16 @@
         <v>41763</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="45">
         <v>2</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G10" s="46">
         <v>41774</v>
@@ -1694,16 +1634,16 @@
         <v>41764</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" s="45">
         <v>1</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G11" s="46">
         <v>41767</v>
@@ -1720,16 +1660,16 @@
         <v>41764</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" s="45">
         <v>3</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G12" s="32">
         <v>41774</v>
@@ -1742,22 +1682,22 @@
     </row>
     <row r="13" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B13" s="29">
         <v>41764</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" s="45">
         <v>2</v>
       </c>
       <c r="E13" s="31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G13" s="32">
         <v>41774</v>
@@ -1770,22 +1710,22 @@
     </row>
     <row r="14" spans="1:15" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B14" s="29">
         <v>41764</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" s="45">
         <v>1</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F14" s="30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G14" s="32">
         <v>41774</v>
@@ -1798,22 +1738,22 @@
     </row>
     <row r="15" spans="1:15" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B15" s="29">
         <v>41764</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" s="45">
         <v>1</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G15" s="32">
         <v>41774</v>
@@ -1826,22 +1766,22 @@
     </row>
     <row r="16" spans="1:15" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" s="29">
         <v>41764</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16" s="45">
         <v>1</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F16" s="30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G16" s="32">
         <v>41774</v>
@@ -1851,27 +1791,27 @@
       </c>
       <c r="I16" s="34"/>
       <c r="J16" s="35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B17" s="29">
         <v>41764</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17" s="45">
         <v>1</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G17" s="32">
         <v>41774</v>
@@ -1881,22 +1821,66 @@
       </c>
       <c r="I17" s="34"/>
       <c r="J17" s="35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="29">
+        <v>41766</v>
+      </c>
+      <c r="C18" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="36"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H19" s="36"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D18" s="45">
+        <v>1</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="32">
+        <v>41774</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="34"/>
+      <c r="J18" s="35"/>
+    </row>
+    <row r="19" spans="1:10" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="29">
+        <v>41766</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="45">
+        <v>1</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="32">
+        <v>41774</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="34"/>
+      <c r="J19" s="35"/>
+    </row>
+    <row r="20" spans="1:10" ht="12" thickTop="1" x14ac:dyDescent="0.2">
       <c r="H20" s="36"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -2988,6 +2972,28 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="D5:D11">
+    <cfRule type="cellIs" dxfId="32" priority="25" operator="equal">
+      <formula>$L$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="26" operator="equal">
+      <formula>$L$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="27" operator="equal">
+      <formula>$L$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="cellIs" dxfId="29" priority="22" operator="equal">
+      <formula>$L$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="23" operator="equal">
+      <formula>$L$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="24" operator="equal">
+      <formula>$L$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
     <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
@@ -2998,7 +3004,7 @@
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
+  <conditionalFormatting sqref="D13">
     <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
@@ -3009,7 +3015,7 @@
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
+  <conditionalFormatting sqref="D14">
     <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
@@ -3020,7 +3026,7 @@
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13">
+  <conditionalFormatting sqref="D15">
     <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
@@ -3031,7 +3037,7 @@
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14">
+  <conditionalFormatting sqref="D16">
     <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
@@ -3042,7 +3048,7 @@
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
+  <conditionalFormatting sqref="D18">
     <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
@@ -3053,7 +3059,7 @@
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16">
+  <conditionalFormatting sqref="D19">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
@@ -3068,7 +3074,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H382">
       <formula1>$O$2:$O$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D19">
       <formula1>$L$2:$L$4</formula1>
     </dataValidation>
   </dataValidations>
@@ -3085,21 +3091,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100FB9238FD839DE1458C9EF746D117716A" ma:contentTypeVersion="0" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ef525560dd58d0c6ee7dc12abc3ec8e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae13a4600d56dd4d917937c2caf43faa">
     <xsd:element name="properties">
@@ -3148,16 +3139,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DDE1CEE-2F26-48C2-8103-000926593C86}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1D4419B-0089-4C39-9F39-49A51DF37CEC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3171,16 +3178,15 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1D4419B-0089-4C39-9F39-49A51DF37CEC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DDE1CEE-2F26-48C2-8103-000926593C86}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documentacion/Documentacion_final/11 Registro de Incidencias_RI.xlsx
+++ b/documentacion/Documentacion_final/11 Registro de Incidencias_RI.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="54">
   <si>
     <t>001</t>
   </si>
@@ -223,7 +223,13 @@
     <t>Se debe quitar el reconocimiento de voz en todas las cajas de texto de la pantalla valoracion articular muscular, puesto que todos son números y se debe cambiar el sistema para que solo permita números</t>
   </si>
   <si>
-    <t>Cuando hay</t>
+    <t>Cambiar las transiciones entre páginas para que no actue el scrolling porque queda feo y meter un cambio de opacidad para que no se vea la recolocación mientras se muestra la pantalla</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>En las gráficas que no salga scroll horizontal, es decir, la grafica solo debe ocupar el tamaño de la pantalla y no deben aparecer los números.</t>
   </si>
 </sst>
 </file>
@@ -1329,8 +1335,8 @@
   </sheetPr>
   <dimension ref="A1:O382"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1852,12 +1858,12 @@
       <c r="I18" s="34"/>
       <c r="J18" s="35"/>
     </row>
-    <row r="19" spans="1:10" ht="12.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="29">
-        <v>41766</v>
+        <v>41769</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>25</v>
@@ -1880,10 +1886,35 @@
       <c r="I19" s="34"/>
       <c r="J19" s="35"/>
     </row>
-    <row r="20" spans="1:10" ht="12" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="H20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="29">
+        <v>41771</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="45">
+        <v>1</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="32">
+        <v>41774</v>
+      </c>
+      <c r="H20" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="34"/>
+      <c r="J20" s="35"/>
+    </row>
+    <row r="21" spans="1:10" ht="12" thickTop="1" x14ac:dyDescent="0.2">
       <c r="H21" s="36"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -2972,94 +3003,105 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="D5:D11">
-    <cfRule type="cellIs" dxfId="32" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="28" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
       <formula>$L$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="29" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="25" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
       <formula>$L$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
       <formula>$L$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
       <formula>$L$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>$L$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
       <formula>$L$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>$L$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>$L$3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>$L$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+      <formula>$L$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>$L$3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>$L$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>$L$4</formula>
     </cfRule>
@@ -3074,7 +3116,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H382">
       <formula1>$O$2:$O$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D20">
       <formula1>$L$2:$L$4</formula1>
     </dataValidation>
   </dataValidations>
@@ -3091,6 +3133,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100FB9238FD839DE1458C9EF746D117716A" ma:contentTypeVersion="0" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ef525560dd58d0c6ee7dc12abc3ec8e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae13a4600d56dd4d917937c2caf43faa">
     <xsd:element name="properties">
@@ -3139,32 +3196,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1D4419B-0089-4C39-9F39-49A51DF37CEC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DDE1CEE-2F26-48C2-8103-000926593C86}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3178,15 +3219,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DDE1CEE-2F26-48C2-8103-000926593C86}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1D4419B-0089-4C39-9F39-49A51DF37CEC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>